--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabdo\OneDrive - HE-ARC\Documents\HeArc\ISC1b\systemes_numériques\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA32389-DAF9-4DCE-B550-E80C4D55D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBB6B9-9807-4E25-B5DE-2BF5D80437D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Durée</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Création du git et structure du projet : https://github.com/stany24/LaboSystemNumeric</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Finalisation des blocks du shema block (sans liaison)</t>
   </si>
 </sst>
 </file>
@@ -124,15 +130,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -150,6 +147,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,605 +440,617 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.77734375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" style="6" customWidth="1"/>
     <col min="4" max="4" width="50.77734375" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="9" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="6" customWidth="1"/>
     <col min="8" max="8" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>45342</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>45342</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="7">
+        <v>45349</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="7">
+        <v>45349</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBB6B9-9807-4E25-B5DE-2BF5D80437D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C8CBB6B9-9807-4E25-B5DE-2BF5D80437D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC438B1D-51E1-453F-BC64-26F9EC185BC5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Durée</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Finalisation des blocks du shema block (sans liaison)</t>
+  </si>
+  <si>
+    <t>Création du graphe des états et commencement de la table de vérité</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,11 +551,17 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="7">
+        <v>45356</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C8CBB6B9-9807-4E25-B5DE-2BF5D80437D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC438B1D-51E1-453F-BC64-26F9EC185BC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C59F9-D96F-40C3-9140-5AEB57B7AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Durée</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Création du graphe des états et commencement de la table de vérité</t>
+  </si>
+  <si>
+    <t>Liaisons dans le nanoProssesseur</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,9 +566,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="7">
+        <v>45356</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C59F9-D96F-40C3-9140-5AEB57B7AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E01C59F9-D96F-40C3-9140-5AEB57B7AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F61096-8A84-4BF1-9627-47752381407A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Durée</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Liaisons dans le nanoProssesseur</t>
+  </si>
+  <si>
+    <t>Création de la table de vérité / Création du plan mémoire</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,9 +582,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7">
+        <v>45363</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E01C59F9-D96F-40C3-9140-5AEB57B7AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F61096-8A84-4BF1-9627-47752381407A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7C445-17C7-4E9E-B068-D10D881BCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Durée</t>
   </si>
@@ -60,10 +60,16 @@
     <t>Création du graphe des états et commencement de la table de vérité</t>
   </si>
   <si>
-    <t>Liaisons dans le nanoProssesseur</t>
-  </si>
-  <si>
     <t>Création de la table de vérité / Création du plan mémoire</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Liansons des le NanoControlleur</t>
+  </si>
+  <si>
+    <t>Liaisons dans le NanoProssesseur</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -589,12 +595,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7">
+        <v>45363</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7C445-17C7-4E9E-B068-D10D881BCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7931E4-79C1-472E-A07C-31DCE479F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Durée</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Liaisons dans le NanoProssesseur</t>
+  </si>
+  <si>
+    <t>Comprendre le rendu 2, Comprendre comment faire de l' assembleur dans la ROM et début du code</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,15 +612,27 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7">
+        <v>45370</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="7">
+        <v>45370</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7931E4-79C1-472E-A07C-31DCE479F451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA405F-DD1E-4DA6-8758-6D32D135B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Durée</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Comprendre le rendu 2, Comprendre comment faire de l' assembleur dans la ROM et début du code</t>
+  </si>
+  <si>
+    <t>Programmation de la rom</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,13 +640,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="7">
+        <v>45377</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="7">
+        <v>45377</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA405F-DD1E-4DA6-8758-6D32D135B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{B5FA405F-DD1E-4DA6-8758-6D32D135B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA79B6A8-0639-411E-A9F3-7EB95FDA9903}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Durée</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Programmation de la rom</t>
+  </si>
+  <si>
+    <t>2h00</t>
+  </si>
+  <si>
+    <t>Programmation de la rom et création du test bench</t>
+  </si>
+  <si>
+    <t>Debug du code grâce à la carte et correction de certain bug</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,24 +672,48 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="7">
+        <v>45384</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="7">
+        <v>45384</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="7">
+        <v>45391</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="7">
+        <v>45391</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{B5FA405F-DD1E-4DA6-8758-6D32D135B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA79B6A8-0639-411E-A9F3-7EB95FDA9903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57883AFF-CD27-494F-9C2B-6635A228F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Durée</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Debug du code grâce à la carte et correction de certain bug</t>
+  </si>
+  <si>
+    <t>Modifié le du nanoController pour appele de sous-routines</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="10.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
     <col min="6" max="7" width="10.77734375" style="6" customWidth="1"/>
     <col min="8" max="8" width="50.77734375" customWidth="1"/>
   </cols>
@@ -718,13 +721,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="7">
+        <v>45398</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="7">
+        <v>45398</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57883AFF-CD27-494F-9C2B-6635A228F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{57883AFF-CD27-494F-9C2B-6635A228F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D0212C-8A4A-43B6-A396-17B11C658D26}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Durée</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Modifié le du nanoController pour appele de sous-routines</t>
+  </si>
+  <si>
+    <t>Modifier le nanoProcesseur / nanoControlleur pour ajouter les appels d'interruptions</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,15 +745,27 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="7">
+        <v>45405</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="7">
+        <v>45405</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{57883AFF-CD27-494F-9C2B-6635A228F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D0212C-8A4A-43B6-A396-17B11C658D26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4D4A4-2A87-46DD-9431-C6361CDE32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Durée</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Modifier le nanoProcesseur / nanoControlleur pour ajouter les appels d'interruptions</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>modifications dans le graph d'état</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,13 +776,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7">
+        <v>45412</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="7">
+        <v>45412</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4D4A4-2A87-46DD-9431-C6361CDE32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{34A4D4A4-2A87-46DD-9431-C6361CDE32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B91210-5584-4C6C-BBFC-4352EB37B660}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Durée</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>modifications dans le graph d'état</t>
+  </si>
+  <si>
+    <t>Création de la structure hiérarchique</t>
+  </si>
+  <si>
+    <t>Finission de la structure hiérarchique et création du code dans la ROM</t>
+  </si>
+  <si>
+    <t>3h00</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,24 +808,48 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="7">
+        <v>45426</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="7">
+        <v>45426</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="7">
+        <v>45431</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
+      <c r="F16" s="7">
+        <v>45431</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabdo\OneDrive - HE-ARC\Documents\HeArc\ISC1b\systemes_numériques\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{34A4D4A4-2A87-46DD-9431-C6361CDE32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B91210-5584-4C6C-BBFC-4352EB37B660}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFBD34-4F4C-4421-A9B0-94036C22A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Durée</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>3h00</t>
+  </si>
+  <si>
+    <t>Création du test bench</t>
+  </si>
+  <si>
+    <t>Continuation du test bench</t>
   </si>
 </sst>
 </file>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,24 +860,48 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="7">
+        <v>45440</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="7">
+        <v>45440</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="7">
+        <v>45447</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="7">
+        <v>45447</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabdo\OneDrive - HE-ARC\Documents\HeArc\ISC1b\systemes_numériques\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFBD34-4F4C-4421-A9B0-94036C22A50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDDBA8-8E73-4DC8-B94A-0C1B5894AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Durée</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Continuation du test bench</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>Essai pour faire fonctionner le séquenceur</t>
+  </si>
+  <si>
+    <t>Continuation de testbench et des corrections</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,24 +915,48 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="7">
+        <v>45451</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="7">
+        <v>45451</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="7">
+        <v>45453</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="7">
+        <v>45453</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDDBA8-8E73-4DC8-B94A-0C1B5894AE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{A72C8F64-6EC7-46FA-9474-A259AA36C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447BFCB2-4DC6-4B34-BDC4-E4AB8B14AFF3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Durée</t>
   </si>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,13 +961,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="7">
+        <v>45454</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="7">
+        <v>45453</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{A72C8F64-6EC7-46FA-9474-A259AA36C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447BFCB2-4DC6-4B34-BDC4-E4AB8B14AFF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12973F6C-1661-4A31-97CD-DCA83B204688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="7">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>12</v>
